--- a/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 8,31</t>
+          <t>-4,49; 7,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 18,26</t>
+          <t>5,22; 17,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,78; 47,31</t>
+          <t>34,1; 47,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,11; 18,03</t>
+          <t>4,22; 17,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,07; 16,89</t>
+          <t>3,99; 16,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,93; 44,69</t>
+          <t>32,8; 44,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 10,12</t>
+          <t>1,13; 10,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 15,43</t>
+          <t>6,39; 15,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,37; 43,93</t>
+          <t>35,08; 44,14</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 17,65</t>
+          <t>-8,45; 16,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 39,27</t>
+          <t>10,4; 38,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,19; 103,79</t>
+          <t>64,21; 103,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,2; 36,41</t>
+          <t>7,78; 34,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 34,69</t>
+          <t>7,36; 33,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>58,73; 91,17</t>
+          <t>57,78; 89,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,89; 20,82</t>
+          <t>2,1; 20,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,71; 31,51</t>
+          <t>12,09; 32,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,39; 89,76</t>
+          <t>65,55; 90,62</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 10,36</t>
+          <t>-0,17; 10,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 11,45</t>
+          <t>0,85; 11,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,06; 36,87</t>
+          <t>27,98; 37,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 11,4</t>
+          <t>1,5; 11,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 8,75</t>
+          <t>-2,37; 8,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,88; 30,55</t>
+          <t>22,07; 30,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 9,58</t>
+          <t>2,1; 9,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 9,52</t>
+          <t>1,63; 8,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,95; 33,1</t>
+          <t>26,82; 32,87</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 17,47</t>
+          <t>-0,33; 17,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 19,29</t>
+          <t>1,32; 19,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,06; 62,35</t>
+          <t>42,93; 62,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 17,4</t>
+          <t>2,14; 17,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 13,17</t>
+          <t>-3,3; 12,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,2; 46,68</t>
+          <t>30,7; 46,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 15,3</t>
+          <t>3,09; 15,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 14,96</t>
+          <t>2,38; 13,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,73; 52,57</t>
+          <t>40,13; 52,57</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 17,3</t>
+          <t>7,01; 17,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,58; 15,09</t>
+          <t>4,53; 15,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,04; 37,03</t>
+          <t>28,26; 37,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 13,13</t>
+          <t>3,86; 13,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,76</t>
+          <t>1,34; 10,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,88; 27,0</t>
+          <t>20,12; 27,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 13,72</t>
+          <t>6,7; 13,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,92; 10,97</t>
+          <t>4,0; 10,67</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,06; 31,35</t>
+          <t>25,11; 31,06</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,65; 29,45</t>
+          <t>10,83; 29,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 25,79</t>
+          <t>7,23; 26,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,19; 64,11</t>
+          <t>44,12; 64,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,64; 18,69</t>
+          <t>5,18; 18,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,55; 15,25</t>
+          <t>1,72; 15,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,59; 39,27</t>
+          <t>26,83; 40,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,82; 21,06</t>
+          <t>9,63; 20,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 17,04</t>
+          <t>5,81; 16,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,23; 48,51</t>
+          <t>36,06; 48,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 13,78</t>
+          <t>2,2; 13,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,85; 12,42</t>
+          <t>0,94; 12,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,94; 35,22</t>
+          <t>25,9; 35,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 10,59</t>
+          <t>0,66; 10,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,83</t>
+          <t>-1,5; 8,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,45; 23,13</t>
+          <t>15,47; 23,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 11,14</t>
+          <t>3,38; 11,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,97; 8,8</t>
+          <t>0,88; 9,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,97; 28,3</t>
+          <t>21,74; 28,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,36; 23,0</t>
+          <t>3,37; 23,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,44; 20,6</t>
+          <t>1,32; 20,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,71; 58,71</t>
+          <t>37,63; 59,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,18; 14,51</t>
+          <t>0,98; 14,56</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 10,54</t>
+          <t>-1,9; 11,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,19; 31,46</t>
+          <t>19,31; 31,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,74; 16,24</t>
+          <t>4,68; 16,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,49; 12,83</t>
+          <t>1,2; 13,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,13; 41,86</t>
+          <t>29,53; 41,16</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 13,14</t>
+          <t>0,36; 12,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,77; 14,21</t>
+          <t>1,87; 13,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,25; 27,76</t>
+          <t>18,53; 27,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,34; 14,09</t>
+          <t>1,71; 13,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 13,68</t>
+          <t>2,15; 13,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,75; 26,72</t>
+          <t>17,84; 26,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,45; 11,65</t>
+          <t>3,08; 11,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,15</t>
+          <t>4,08; 11,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,13; 25,74</t>
+          <t>19,12; 25,87</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,29; 19,71</t>
+          <t>0,47; 18,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,37; 21,45</t>
+          <t>2,45; 20,21</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,68; 41,99</t>
+          <t>24,95; 42,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,97; 19,94</t>
+          <t>2,27; 18,59</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,15; 19,33</t>
+          <t>2,73; 19,28</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,57; 37,97</t>
+          <t>22,69; 38,01</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,6; 16,74</t>
+          <t>4,09; 16,34</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4,73; 17,3</t>
+          <t>5,46; 17,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,31; 36,93</t>
+          <t>25,47; 37,23</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,55; 14,48</t>
+          <t>4,38; 14,56</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,35; 12,68</t>
+          <t>3,14; 13,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,03; 26,31</t>
+          <t>18,34; 26,26</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,54; 12,66</t>
+          <t>4,35; 12,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 8,31</t>
+          <t>-0,34; 8,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,77; 22,31</t>
+          <t>15,86; 22,2</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,37; 12,14</t>
+          <t>5,73; 11,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,7; 9,24</t>
+          <t>2,75; 9,26</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,22</t>
+          <t>17,82; 23,15</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,92; 20,37</t>
+          <t>5,73; 20,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,45; 17,95</t>
+          <t>4,31; 19,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,52; 37,81</t>
+          <t>23,79; 37,68</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,63; 16,78</t>
+          <t>5,36; 16,82</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 11,01</t>
+          <t>0,06; 11,03</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,56; 30,07</t>
+          <t>19,72; 29,73</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>6,98; 16,4</t>
+          <t>7,43; 16,25</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,55</t>
+          <t>3,58; 12,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,81; 31,52</t>
+          <t>22,7; 31,42</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,59; 10,2</t>
+          <t>5,63; 10,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,55; 11,3</t>
+          <t>6,86; 11,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>29,06; 32,9</t>
+          <t>29,22; 33,04</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,52; 10,67</t>
+          <t>6,24; 10,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,34; 8,31</t>
+          <t>4,21; 8,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>22,81; 26,26</t>
+          <t>22,95; 26,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,74; 9,8</t>
+          <t>6,66; 9,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,29</t>
+          <t>6,16; 9,24</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,57; 29,11</t>
+          <t>26,62; 29,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,46</t>
+          <t>8,68; 16,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,19; 18,28</t>
+          <t>10,6; 18,86</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>44,79; 53,34</t>
+          <t>44,97; 53,34</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,1; 15,32</t>
+          <t>8,67; 15,18</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,91</t>
+          <t>5,85; 12,09</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>31,42; 37,66</t>
+          <t>31,66; 38,02</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>9,9; 14,65</t>
+          <t>9,75; 14,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,06; 14,03</t>
+          <t>9,08; 13,94</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>38,85; 43,92</t>
+          <t>39,0; 43,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 7,88</t>
+          <t>-5,15; 8,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 17,96</t>
+          <t>5,18; 17,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,1; 47,44</t>
+          <t>34,43; 46,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,22; 17,0</t>
+          <t>4,34; 17,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 16,4</t>
+          <t>3,48; 16,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,8; 44,34</t>
+          <t>32,3; 44,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,13; 10,22</t>
+          <t>1,39; 10,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 15,67</t>
+          <t>6,23; 15,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,08; 44,14</t>
+          <t>35,09; 44,05</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 16,8</t>
+          <t>-9,58; 17,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 38,58</t>
+          <t>9,96; 37,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,21; 103,81</t>
+          <t>65,67; 101,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 34,31</t>
+          <t>7,32; 34,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 33,62</t>
+          <t>6,25; 33,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,78; 89,45</t>
+          <t>59,22; 91,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 20,81</t>
+          <t>2,61; 21,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,09; 32,04</t>
+          <t>11,5; 31,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,55; 90,62</t>
+          <t>65,26; 90,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 10,53</t>
+          <t>0,17; 10,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 11,6</t>
+          <t>1,36; 11,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,98; 37,02</t>
+          <t>28,41; 37,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 11,56</t>
+          <t>1,76; 11,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 8,15</t>
+          <t>-1,62; 8,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,07; 30,61</t>
+          <t>22,19; 30,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 9,53</t>
+          <t>2,32; 9,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 8,57</t>
+          <t>1,52; 8,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,82; 32,87</t>
+          <t>26,64; 32,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 17,86</t>
+          <t>0,24; 17,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 19,77</t>
+          <t>2,15; 19,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>42,93; 62,54</t>
+          <t>43,76; 63,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 17,44</t>
+          <t>2,47; 17,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 12,32</t>
+          <t>-2,3; 12,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,7; 46,98</t>
+          <t>31,09; 47,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 15,13</t>
+          <t>3,47; 15,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,38; 13,37</t>
+          <t>2,14; 13,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,13; 52,57</t>
+          <t>39,48; 52,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,01; 17,11</t>
+          <t>6,66; 17,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 15,18</t>
+          <t>4,62; 14,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,26; 37,2</t>
+          <t>27,88; 36,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 13,05</t>
+          <t>4,28; 13,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,34; 10,53</t>
+          <t>1,1; 10,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,12; 27,78</t>
+          <t>20,11; 27,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 13,56</t>
+          <t>6,71; 13,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,67</t>
+          <t>3,88; 11,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,11; 31,06</t>
+          <t>24,84; 30,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,83; 29,29</t>
+          <t>10,36; 29,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 26,26</t>
+          <t>7,08; 24,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>44,12; 64,21</t>
+          <t>42,73; 63,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,18; 18,83</t>
+          <t>5,43; 19,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,72; 15,12</t>
+          <t>1,52; 15,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,83; 40,59</t>
+          <t>26,74; 39,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,63; 20,67</t>
+          <t>9,87; 21,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 16,43</t>
+          <t>5,58; 17,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,06; 48,0</t>
+          <t>36,06; 47,52</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,2; 13,97</t>
+          <t>2,59; 14,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 12,35</t>
+          <t>0,59; 12,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,9; 35,49</t>
+          <t>25,41; 34,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 10,72</t>
+          <t>1,28; 11,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 8,48</t>
+          <t>-1,81; 7,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,47; 23,14</t>
+          <t>15,23; 23,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,14</t>
+          <t>3,15; 10,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,1</t>
+          <t>1,32; 8,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,74; 28,03</t>
+          <t>22,01; 28,06</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,37; 23,14</t>
+          <t>4,09; 23,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,32; 20,07</t>
+          <t>0,88; 20,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,63; 59,44</t>
+          <t>37,12; 57,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,98; 14,56</t>
+          <t>1,64; 15,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 11,31</t>
+          <t>-2,33; 10,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>19,31; 31,54</t>
+          <t>18,86; 31,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,68; 16,4</t>
+          <t>4,34; 15,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 13,4</t>
+          <t>1,72; 12,5</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>29,53; 41,16</t>
+          <t>30,03; 41,45</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,36; 12,54</t>
+          <t>0,07; 12,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,87; 13,44</t>
+          <t>2,0; 14,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>18,53; 27,88</t>
+          <t>17,73; 27,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,71; 13,25</t>
+          <t>2,27; 13,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,15; 13,97</t>
+          <t>2,64; 13,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,84; 26,6</t>
+          <t>17,27; 26,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,08; 11,49</t>
+          <t>3,47; 11,69</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,87</t>
+          <t>4,29; 12,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,12; 25,87</t>
+          <t>18,6; 25,6</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,47; 18,56</t>
+          <t>0,14; 19,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,45; 20,21</t>
+          <t>3,02; 21,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,95; 42,45</t>
+          <t>23,66; 41,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,27; 18,59</t>
+          <t>2,92; 18,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>2,73; 19,28</t>
+          <t>3,39; 19,63</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,69; 38,01</t>
+          <t>21,96; 37,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,09; 16,34</t>
+          <t>4,67; 16,8</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>5,46; 17,14</t>
+          <t>5,76; 17,87</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>25,47; 37,23</t>
+          <t>24,43; 36,71</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,38; 14,56</t>
+          <t>4,08; 14,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,14; 13,3</t>
+          <t>3,27; 13,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,34; 26,26</t>
+          <t>18,72; 26,85</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,35; 12,83</t>
+          <t>4,15; 12,25</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,22</t>
+          <t>-0,18; 8,35</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,86; 22,2</t>
+          <t>15,61; 22,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,73; 11,99</t>
+          <t>5,7; 12,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,75; 9,26</t>
+          <t>2,67; 9,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,82; 23,15</t>
+          <t>17,98; 23,32</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,73; 20,57</t>
+          <t>5,6; 20,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,31; 19,0</t>
+          <t>4,36; 18,68</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,79; 37,68</t>
+          <t>24,42; 38,3</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,36; 16,82</t>
+          <t>5,17; 16,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,06; 11,03</t>
+          <t>-0,24; 11,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,72; 29,73</t>
+          <t>19,34; 30,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,43; 16,25</t>
+          <t>7,35; 16,29</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,58; 12,58</t>
+          <t>3,47; 12,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,7; 31,42</t>
+          <t>22,92; 31,76</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,26</t>
+          <t>5,5; 10,13</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,86; 11,61</t>
+          <t>6,89; 11,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>29,22; 33,04</t>
+          <t>28,92; 32,94</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,58</t>
+          <t>6,31; 10,38</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,45</t>
+          <t>3,95; 8,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>22,95; 26,45</t>
+          <t>23,02; 26,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,65</t>
+          <t>6,61; 9,82</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,24</t>
+          <t>6,0; 9,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,62; 29,07</t>
+          <t>26,65; 29,16</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>8,68; 16,54</t>
+          <t>8,57; 16,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>10,6; 18,86</t>
+          <t>10,57; 18,67</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>44,97; 53,34</t>
+          <t>44,52; 53,31</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8,67; 15,18</t>
+          <t>8,67; 14,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,85; 12,09</t>
+          <t>5,5; 11,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>31,66; 38,02</t>
+          <t>31,72; 37,78</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>9,75; 14,56</t>
+          <t>9,72; 14,82</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,08; 13,94</t>
+          <t>8,85; 13,94</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>39,0; 43,91</t>
+          <t>39,13; 44,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>41,06</t>
+          <t>40,71</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>38,87</t>
+          <t>38,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>39,4</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>34,43; 46,58</t>
+          <t>33,54; 46,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,3; 44,2</t>
+          <t>30,73; 43,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>35,09; 44,05</t>
+          <t>33,95; 43,47</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,16%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>73,63%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>77,9%</t>
+          <t>76,74%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>65,67; 101,52</t>
+          <t>64,03; 100,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,22; 91,36</t>
+          <t>56,7; 89,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,26; 90,31</t>
+          <t>63,92; 89,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,87</t>
+          <t>32,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,15</t>
+          <t>26,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>29,81</t>
+          <t>30,11</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 37,36</t>
+          <t>28,4; 37,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,19; 30,94</t>
+          <t>22,71; 31,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,64; 32,68</t>
+          <t>27,11; 33,19</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>53,05%</t>
+          <t>53,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>46,16%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,76; 63,6</t>
+          <t>43,92; 63,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,09; 47,39</t>
+          <t>31,76; 48,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,48; 52,07</t>
+          <t>40,11; 52,74</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,65</t>
+          <t>32,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>23,58</t>
+          <t>23,53</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,93</t>
+          <t>27,8</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,88; 36,79</t>
+          <t>27,62; 36,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 27,49</t>
+          <t>20,05; 27,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 30,76</t>
+          <t>24,73; 30,66</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>53,2%</t>
+          <t>52,91%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>32,57%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>41,67%</t>
+          <t>41,48%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,73; 63,66</t>
+          <t>42,65; 63,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,74; 39,89</t>
+          <t>26,7; 39,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>36,06; 47,52</t>
+          <t>35,86; 47,38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,7</t>
+          <t>31,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>19,11</t>
+          <t>19,22</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,94</t>
+          <t>25,44</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,41; 34,77</t>
+          <t>26,69; 36,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,23; 23,04</t>
+          <t>15,27; 23,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,01; 28,06</t>
+          <t>22,54; 28,82</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>49,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,77%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>35,95%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>37,12; 57,18</t>
+          <t>38,61; 60,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,86; 31,26</t>
+          <t>18,99; 31,5</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,03; 41,45</t>
+          <t>30,48; 42,41</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22,97</t>
+          <t>22,84</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,04</t>
+          <t>21,98</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>22,46</t>
+          <t>22,35</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,73; 27,63</t>
+          <t>17,67; 27,53</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,27; 26,3</t>
+          <t>17,21; 26,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,6; 25,6</t>
+          <t>18,49; 25,55</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>32,62%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>30,84%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,66; 41,79</t>
+          <t>23,46; 41,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>21,96; 37,36</t>
+          <t>21,89; 37,26</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,43; 36,71</t>
+          <t>24,28; 36,57</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,09</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>22,1</t>
+          <t>22,62</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8,53</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>4,15</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>8,91</t>
+          <t>9,36</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>20,32</t>
+          <t>21,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,08; 14,33</t>
+          <t>2,77; 16,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,27; 13,29</t>
+          <t>1,19; 14,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>18,72; 26,85</t>
+          <t>17,91; 28,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,15; 12,25</t>
+          <t>4,47; 14,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 8,35</t>
+          <t>0,5; 11,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,61; 22,59</t>
+          <t>15,65; 25,03</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,06</t>
+          <t>4,9; 13,9</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,67; 9,2</t>
+          <t>3,23; 11,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,32</t>
+          <t>17,83; 25,12</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>25,2%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>28,11%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>5,6; 20,34</t>
+          <t>3,67; 23,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>4,36; 18,68</t>
+          <t>1,57; 20,67</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>24,42; 38,3</t>
+          <t>23,28; 42,1</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,17; 16,31</t>
+          <t>5,57; 19,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 11,12</t>
+          <t>0,63; 16,08</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,34; 30,42</t>
+          <t>19,03; 33,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,35; 16,29</t>
+          <t>6,34; 18,98</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,47; 12,45</t>
+          <t>4,15; 16,36</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,92; 31,76</t>
+          <t>22,54; 34,19</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>9,33</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>31,06</t>
+          <t>21,05</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>24,7</t>
+          <t>18,49</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>7,69</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>27,86</t>
+          <t>19,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,13</t>
+          <t>1,65; 16,82</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,68</t>
+          <t>0,2; 14,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>28,92; 32,94</t>
+          <t>14,91; 27,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,38</t>
+          <t>2,01; 13,61</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,23</t>
+          <t>-4,67; 8,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>23,02; 26,33</t>
+          <t>13,54; 23,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,82</t>
+          <t>2,96; 12,74</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,19</t>
+          <t>-1,09; 9,15</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>26,65; 29,16</t>
+          <t>15,72; 23,42</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>14,35%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>34,74%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>25,46%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>2,43; 24,02</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 20,13</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>18,6; 38,82</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>2,48; 18,4</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 11,57</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 32,44</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 17,23</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 12,48</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>19,63; 32,13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9,07</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>31,2</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>8,46</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>6,32</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>24,82</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>8,21</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>7,69</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>27,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>5,5; 10,13</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 11,68</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>29,06; 33,31</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 10,38</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 8,23</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>23,11; 26,53</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>6,61; 9,82</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>6,0; 9,19</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>26,75; 29,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>49,35%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>34,91%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>12,22%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>11,44%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>41,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>8,57; 16,44</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>10,57; 18,67</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>44,52; 53,31</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>44,58; 53,67</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>8,67; 14,8</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>5,5; 11,85</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>31,72; 37,78</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>31,88; 37,99</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>9,72; 14,82</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>8,85; 13,94</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>39,13; 44,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>39,27; 44,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 8,04</t>
+          <t>-5,39; 7,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,18; 17,68</t>
+          <t>5,66; 18,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,54; 46,36</t>
+          <t>33,1; 47,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 17,67</t>
+          <t>4,45; 17,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 16,42</t>
+          <t>4,06; 17,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,73; 43,74</t>
+          <t>31,37; 44,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 10,38</t>
+          <t>1,44; 10,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,23; 15,46</t>
+          <t>6,33; 15,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,95; 43,47</t>
+          <t>34,21; 43,75</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 17,66</t>
+          <t>-10,2; 15,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 37,71</t>
+          <t>10,76; 40,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,03; 100,89</t>
+          <t>63,93; 104,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 34,93</t>
+          <t>7,95; 35,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,25; 33,08</t>
+          <t>7,62; 35,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,7; 89,31</t>
+          <t>56,01; 90,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 21,1</t>
+          <t>2,66; 21,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,5; 31,65</t>
+          <t>12,18; 31,51</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,92; 89,65</t>
+          <t>64,2; 90,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 10,41</t>
+          <t>-0,49; 10,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 11,79</t>
+          <t>1,73; 12,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,4; 37,42</t>
+          <t>28,43; 37,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 11,63</t>
+          <t>1,56; 11,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 8,4</t>
+          <t>-1,46; 8,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 31,52</t>
+          <t>22,38; 31,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 9,72</t>
+          <t>2,24; 9,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 8,52</t>
+          <t>1,55; 8,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 33,19</t>
+          <t>26,88; 33,31</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 17,17</t>
+          <t>-0,77; 16,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 19,91</t>
+          <t>2,5; 20,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>43,92; 63,65</t>
+          <t>43,55; 62,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 17,71</t>
+          <t>2,16; 17,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 12,65</t>
+          <t>-2,08; 13,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,76; 48,39</t>
+          <t>30,93; 47,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,47; 15,67</t>
+          <t>3,32; 14,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 13,36</t>
+          <t>2,36; 13,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>40,11; 52,74</t>
+          <t>40,21; 52,94</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,66; 17,18</t>
+          <t>7,05; 17,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,62; 14,71</t>
+          <t>4,48; 14,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27,62; 36,61</t>
+          <t>28,15; 37,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 13,34</t>
+          <t>3,89; 13,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 10,73</t>
+          <t>0,95; 9,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,47</t>
+          <t>19,89; 27,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 13,82</t>
+          <t>6,75; 14,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 11,08</t>
+          <t>4,09; 10,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,73; 30,66</t>
+          <t>24,85; 30,7</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 29,74</t>
+          <t>10,86; 30,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 24,97</t>
+          <t>6,99; 25,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>42,65; 63,66</t>
+          <t>43,63; 64,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,43; 19,13</t>
+          <t>5,16; 19,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,52; 15,49</t>
+          <t>1,3; 14,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,7; 39,86</t>
+          <t>26,39; 39,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,87; 21,34</t>
+          <t>9,55; 21,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 17,21</t>
+          <t>5,98; 16,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,86; 47,38</t>
+          <t>35,88; 47,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 14,1</t>
+          <t>2,29; 14,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,59; 12,38</t>
+          <t>0,56; 12,93</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,69; 36,46</t>
+          <t>26,63; 37,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,28; 11,2</t>
+          <t>0,84; 10,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 7,99</t>
+          <t>-1,75; 7,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,27; 23,15</t>
+          <t>15,61; 23,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,15; 10,88</t>
+          <t>3,21; 10,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 8,63</t>
+          <t>0,91; 8,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,54; 28,82</t>
+          <t>22,05; 28,45</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,09; 23,17</t>
+          <t>3,32; 23,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 20,24</t>
+          <t>0,87; 21,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,61; 60,46</t>
+          <t>39,15; 62,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,64; 15,55</t>
+          <t>0,98; 13,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 10,84</t>
+          <t>-2,18; 10,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,99; 31,5</t>
+          <t>19,35; 31,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 15,72</t>
+          <t>4,34; 15,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,72; 12,5</t>
+          <t>1,26; 12,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,48; 42,41</t>
+          <t>29,64; 41,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,07; 12,95</t>
+          <t>0,88; 13,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,0; 14,17</t>
+          <t>1,44; 14,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17,67; 27,53</t>
+          <t>17,46; 27,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,43</t>
+          <t>2,11; 14,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,64; 13,81</t>
+          <t>3,33; 14,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,21; 26,26</t>
+          <t>17,36; 26,43</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>3,47; 11,69</t>
+          <t>2,81; 11,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,29; 12,44</t>
+          <t>3,89; 12,78</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18,49; 25,55</t>
+          <t>18,72; 25,76</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,14; 19,35</t>
+          <t>1,12; 20,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>3,02; 21,48</t>
+          <t>2,04; 21,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>23,46; 41,52</t>
+          <t>23,88; 41,77</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,92; 18,82</t>
+          <t>2,72; 19,89</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,39; 19,63</t>
+          <t>4,2; 20,18</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>21,89; 37,26</t>
+          <t>21,96; 37,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,67; 16,8</t>
+          <t>3,73; 16,12</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>5,76; 17,87</t>
+          <t>5,22; 18,35</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,28; 36,57</t>
+          <t>24,72; 37,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,77; 16,39</t>
+          <t>2,45; 16,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,19; 14,16</t>
+          <t>1,48; 14,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>17,91; 28,32</t>
+          <t>17,92; 28,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,47; 14,76</t>
+          <t>3,65; 14,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,5; 11,99</t>
+          <t>0,7; 12,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>15,65; 25,03</t>
+          <t>15,5; 24,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,9; 13,9</t>
+          <t>5,04; 13,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,23; 11,75</t>
+          <t>2,62; 11,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,83; 25,12</t>
+          <t>17,87; 25,3</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,67; 23,94</t>
+          <t>3,14; 23,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,57; 20,67</t>
+          <t>1,88; 21,02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>23,28; 42,1</t>
+          <t>23,44; 42,9</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>5,57; 19,9</t>
+          <t>4,42; 19,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>0,63; 16,08</t>
+          <t>0,85; 16,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,03; 33,94</t>
+          <t>18,96; 33,71</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>6,34; 18,98</t>
+          <t>6,48; 18,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4,15; 16,36</t>
+          <t>3,37; 15,55</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>22,54; 34,19</t>
+          <t>22,75; 35,14</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,65; 16,82</t>
+          <t>1,94; 17,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,2; 14,54</t>
+          <t>0,21; 15,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14,91; 27,0</t>
+          <t>15,21; 27,38</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,61</t>
+          <t>1,61; 14,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,69</t>
+          <t>-4,73; 9,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>13,54; 23,66</t>
+          <t>13,6; 24,3</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2,96; 12,74</t>
+          <t>3,49; 13,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 9,15</t>
+          <t>-0,74; 9,23</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,72; 23,42</t>
+          <t>15,58; 23,46</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2,43; 24,02</t>
+          <t>2,62; 24,48</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,08; 20,13</t>
+          <t>0,29; 21,54</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>18,6; 38,82</t>
+          <t>18,94; 39,92</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,48; 18,4</t>
+          <t>1,88; 19,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 11,57</t>
+          <t>-5,83; 12,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>16,54; 32,44</t>
+          <t>16,48; 33,48</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>3,71; 17,23</t>
+          <t>4,46; 18,34</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 12,48</t>
+          <t>-0,86; 12,6</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>19,63; 32,13</t>
+          <t>19,5; 32,12</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,13</t>
+          <t>5,51; 10,39</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>6,89; 11,68</t>
+          <t>6,75; 11,46</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>29,06; 33,31</t>
+          <t>29,27; 33,47</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,38</t>
+          <t>6,28; 10,47</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,23</t>
+          <t>4,14; 8,62</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>23,11; 26,53</t>
+          <t>23,16; 26,54</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,82</t>
+          <t>6,54; 9,71</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,19</t>
+          <t>6,09; 9,27</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>26,75; 29,34</t>
+          <t>26,63; 29,34</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>8,57; 16,44</t>
+          <t>8,47; 16,64</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,67</t>
+          <t>10,48; 18,57</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>44,58; 53,67</t>
+          <t>45,06; 54,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,67; 14,8</t>
+          <t>8,63; 14,91</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,85</t>
+          <t>5,66; 12,32</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>31,88; 37,99</t>
+          <t>31,94; 38,08</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,82</t>
+          <t>9,71; 14,76</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,94</t>
+          <t>8,95; 14,0</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>39,27; 44,31</t>
+          <t>39,02; 44,35</t>
         </is>
       </c>
     </row>
